--- a/testData/login_data.xlsx
+++ b/testData/login_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>inValid</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -523,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
